--- a/Python_Calisma_Saati_egitim konulari_v1.0.xlsx
+++ b/Python_Calisma_Saati_egitim konulari_v1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>python nedir</t>
   </si>
@@ -119,7 +119,19 @@
     <t>metotlari</t>
   </si>
   <si>
+    <t>Aritmetik Fonksiyonlar</t>
+  </si>
+  <si>
     <t>abs()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>sum()</t>
   </si>
   <si>
     <t>Dosya İşlemleri</t>
@@ -291,7 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6969"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,6 +503,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,6 +514,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6969"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -773,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,52 +863,52 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -907,7 +927,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>14</v>
@@ -919,10 +939,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -947,7 +967,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1005,7 +1025,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>30</v>
@@ -1019,13 +1039,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1033,7 +1053,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>30</v>
@@ -1045,7 +1065,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1055,120 +1075,142 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" location="abs" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - abs"/>
-    <hyperlink ref="C25" r:id="rId2" location="round" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - round"/>
-    <hyperlink ref="D25" r:id="rId3" location="list" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - list"/>
-    <hyperlink ref="E25" r:id="rId4" location="float" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - float"/>
+    <hyperlink ref="B44" r:id="rId1" location="abs" display="https://belgeler.yazbel.com/python-istihza/sayilar.html - abs"/>
+    <hyperlink ref="C44" r:id="rId2" location="max" display="https://belgeler.yazbel.com/python-istihza/sayilar.html - max"/>
+    <hyperlink ref="D44" r:id="rId3" location="min" display="https://belgeler.yazbel.com/python-istihza/sayilar.html - min"/>
+    <hyperlink ref="E44" r:id="rId4" location="sum" display="https://belgeler.yazbel.com/python-istihza/sayilar.html - sum"/>
+    <hyperlink ref="B25" r:id="rId5" location="abs" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - abs"/>
+    <hyperlink ref="C25" r:id="rId6" location="round" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - round"/>
+    <hyperlink ref="D25" r:id="rId7" location="list" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - list"/>
+    <hyperlink ref="E25" r:id="rId8" location="float" display="https://belgeler.yazbel.com/python-istihza/gomulu_fonksiyonlar.html - float"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>